--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T16:28:18+00:00</t>
+    <t>2022-04-21T17:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T17:41:33+00:00</t>
+    <t>2022-04-21T19:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T19:49:37+00:00</t>
+    <t>2022-04-21T20:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T20:11:07+00:00</t>
+    <t>2022-04-22T13:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,10 +66,10 @@
     <t>Science37</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Jurisdiction</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/fhir/StructureDefinition/vasScale-item</t>
+    <t>https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/vasScale-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T13:21:10+00:00</t>
+    <t>2022-04-22T13:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://science37.com/fhir/StructureDefinition/item-settings</t>
+    <t>https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/item-settings</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T13:31:05+00:00</t>
+    <t>2022-04-22T13:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T13:31:48+00:00</t>
+    <t>2022-04-26T11:02:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:02:11+00:00</t>
+    <t>2022-04-26T11:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:12:16+00:00</t>
+    <t>2022-04-26T13:26:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:26:02+00:00</t>
+    <t>2022-04-26T13:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:59:43+00:00</t>
+    <t>2022-04-26T14:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T14:22:56+00:00</t>
+    <t>2022-04-26T15:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:39:01+00:00</t>
+    <t>2022-04-26T15:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:51:51+00:00</t>
+    <t>2022-04-26T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:55:35+00:00</t>
+    <t>2022-04-26T18:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T18:38:49+00:00</t>
+    <t>2022-04-26T21:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T21:01:36+00:00</t>
+    <t>2022-04-27T14:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:46:05+00:00</t>
+    <t>2022-04-27T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:02:03+00:00</t>
+    <t>2022-04-27T16:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T16:39:04+00:00</t>
+    <t>2022-04-27T17:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T17:38:08+00:00</t>
+    <t>2022-04-27T18:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:33:33+00:00</t>
+    <t>2022-04-27T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:54:13+00:00</t>
+    <t>2022-04-27T19:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T19:43:22+00:00</t>
+    <t>2022-04-27T20:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T20:06:03+00:00</t>
+    <t>2022-04-28T14:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:41:30+00:00</t>
+    <t>2022-04-28T16:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:16:13+00:00</t>
+    <t>2022-04-28T17:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T17:50:19+00:00</t>
+    <t>2022-04-28T19:25:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:25:11+00:00</t>
+    <t>2022-04-28T19:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:27:01+00:00</t>
+    <t>2022-04-28T19:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:36:30+00:00</t>
+    <t>2022-04-28T20:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T20:42:10+00:00</t>
+    <t>2022-05-02T17:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T17:39:54+00:00</t>
+    <t>2022-05-02T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T18:57:01+00:00</t>
+    <t>2022-05-02T20:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T20:54:37+00:00</t>
+    <t>2022-05-03T12:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:17:31+00:00</t>
+    <t>2022-05-03T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:15:42+00:00</t>
+    <t>2022-05-03T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:40:40+00:00</t>
+    <t>2022-05-03T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vasScale-item.xlsx
+++ b/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
